--- a/biology/Botanique/Drap_d'or/Drap_d'or.xlsx
+++ b/biology/Botanique/Drap_d'or/Drap_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drap_d%27or</t>
+          <t>Drap_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drap d'or est le nom de trois variétés de pommes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drap_d%27or</t>
+          <t>Drap_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,18 +525,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-« Vrai drap d'or »,
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Vrai drap d'or »,
 Reinette de Melesse,
 « Reinette vermeille de Bretagne »,
 Pomme Bay,
 Pomme d'Or de France,
 Radar, Rado ou « Bonne de Mai »,
-« Chailleux », cette dernière appellation se décline en différentes variantes telles que « Chailleux gros », « Chailleux tardif », etc.
-Origine
-Originaire du canton de Nozay.
-Description
-Le fruit moyen à gros est jaune légèrement marbré de brun clair ponctué de roux.
+« Chailleux », cette dernière appellation se décline en différentes variantes telles que « Chailleux gros », « Chailleux tardif », etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Drap_d'or</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drap_d%27or</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Drap d'or de Bretagne</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du canton de Nozay.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Drap_d'or</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drap_d%27or</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Drap d'or de Bretagne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit moyen à gros est jaune légèrement marbré de brun clair ponctué de roux.
 Sa chair blanche jaunâtre est parfumée, fine, sucrée et croquante.
 Arrive à maturité vers décembre.
 Cité dès 1628 par le Lectier, « Drap d'or de Bretagne » est un arbre vigoureux et fertile qu'il faut greffer de préférence sur franc en raison de sa forte vigueur. La production est parfois alternante.
@@ -533,62 +619,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Drap_d%27or</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drap_d'or</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Drap_d%27or</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Drap d'Or des Hollandais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La « drap d'or de Bretagne » est parfois confondue avec la Reinette marbrée (Drap d'Or des Hollandais) ou la Reinette blanche hâtive.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Drap_d%27or</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Drap_d'or</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Drap_d%27or</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Reinette blanche hâtive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
